--- a/data/air_info/上海-首尔.xlsx
+++ b/data/air_info/上海-首尔.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F6AD92-2CDA-45E4-8D51-B19101D221B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEB4C9E-6144-435F-9594-3EE11792E2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,24 +33,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
-    <t>行程时间：2 小时 5 分钟</t>
-  </si>
-  <si>
     <t>大韩航空经济舱Boeing 737KE 896</t>
   </si>
   <si>
-    <t>行程时间：2 小时 10 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：1 小时 50 分钟</t>
-  </si>
-  <si>
     <t>韩亚商务舱Airbus A330OZ 362</t>
   </si>
   <si>
-    <t>行程时间：2 小时</t>
-  </si>
-  <si>
     <t>东航经济舱Airbus A321MU 5033</t>
   </si>
   <si>
@@ -63,18 +51,12 @@
     <t>韩亚经济舱Airbus A350OZ 366</t>
   </si>
   <si>
-    <t>行程时间：2 小时 40 分钟</t>
-  </si>
-  <si>
     <t>东航经济舱Airbus A320MU 5011</t>
   </si>
   <si>
     <t>南航经济舱Airbus A321CZ 369</t>
   </si>
   <si>
-    <t>行程时间：2 小时 25 分钟</t>
-  </si>
-  <si>
     <t>东航经济舱Airbus A330MU 5051</t>
   </si>
   <si>
@@ -115,6 +97,29 @@
   </si>
   <si>
     <t>机票价格</t>
+  </si>
+  <si>
+    <t>2 小时 5 分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 小时 50 分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时 40 分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时 10 分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时 25 分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -482,31 +487,30 @@
     <col min="4" max="4" width="19.54296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="42" style="1" customWidth="1"/>
-    <col min="7" max="7" width="47.6328125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -514,23 +518,22 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
         <v>0.49652777777777779</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">RANDBETWEEN(990,1800)</f>
-        <v>1026</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -538,23 +541,22 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>0.60416666666666663</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G12" ca="1" si="0">RANDBETWEEN(990,1800)</f>
-        <v>1744</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -562,23 +564,22 @@
         <v>0.51388888888888884</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>0.63888888888888884</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1055</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -586,23 +587,22 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>0.69791666666666663</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1493</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -610,23 +610,22 @@
         <v>0.60763888888888884</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>0.72569444444444442</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1793</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -634,23 +633,22 @@
         <v>0.68055555555555558</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>0.80555555555555558</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1292</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -658,23 +656,22 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>0.85763888888888884</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1314</v>
+        <v>904</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -682,23 +679,22 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>0.83680555555555558</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1682</v>
+        <v>864</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -706,23 +702,22 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>0.86458333333333337</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1113</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -730,23 +725,22 @@
         <v>0.75694444444444442</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2">
         <v>0.88888888888888884</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1524</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -754,23 +748,22 @@
         <v>0.76736111111111116</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
         <v>0.89583333333333337</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1234</v>
+        <v>1389</v>
       </c>
     </row>
   </sheetData>
